--- a/scripts/spreadsheets_src/translations_tl.xlsx
+++ b/scripts/spreadsheets_src/translations_tl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,7 +466,11 @@
           <t>About the program</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr"/>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Tungkol sa programa</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -479,7 +483,11 @@
           <t>Sign up now</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Magpatala ngayon</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -492,7 +500,11 @@
           <t>Official website of the</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr"/>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Opisyal na website ng</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -505,7 +517,11 @@
           <t>State of California</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr"/>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Estado ng California</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -518,7 +534,11 @@
           <t>How it works</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Paano ito gumagana</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -531,7 +551,11 @@
           <t>You opt in to a topic</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr"/>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Nag-opt in ka sa isang paksa</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -544,7 +568,11 @@
           <t>We invite you to join</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr"/>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Inaanyayahan ka naming sumali</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -557,7 +585,11 @@
           <t>You share your thoughts</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr"/>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Ibinahagi mo ang iyong mga saloobin</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -570,7 +602,11 @@
           <t>We share results</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr"/>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Nagbabahagi kami ng mga resulta</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -583,241 +619,470 @@
           <t>Join the conversation</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr"/>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Sumali sa usapan</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>join-the-conversation-form-label</t>
+          <t>how-it-works-alt-1</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Give us your email. We'll notify you when topics open.</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr"/>
+          <t>An icon of a group of people</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Isang icon ng isang grupo ng mga tao</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>back-to-top</t>
+          <t>how-it-works-alt-2</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Back to top</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
+          <t>An icon of a government building</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Isang icon ng isang gusali ng pamahalaan</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>email-label</t>
+          <t>join-the-conversation-form-label</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr"/>
+          <t>Give us your email. We’ll notify you when topics open.</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Ibigay sa amin ang iyong email. Aabisuhan ka namin kapag nagbukas ang mga paksa.</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>required-label</t>
+          <t>back-to-top</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Required field</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr"/>
+          <t>Back to top</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Bumalik sa itaas</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>valid-email-message</t>
+          <t>email-label</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Please enter a valid email address.</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr"/>
+          <t>Email</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>valid-email-message-2</t>
+          <t>required-label</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Email addresses should contain a "@" and a "."</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr"/>
+          <t>Required field</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Kinakailangang field</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>form-problem-message</t>
+          <t>topics-interests-label</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>We're sorry, there's a problem with our form.</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr"/>
+          <t>Tell us what you’re interested in</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Mga paksang interesado ako:</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>form-problem-message-2</t>
+          <t>topic-future-topics</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Please try again later.</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr"/>
+          <t>Future topics</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mga paksa sa hinaharap </t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>form-submit-button</t>
+          <t>topic-los-angeles-fires-recovery-palisades</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Sign up now</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr"/>
+          <t>Los Angeles fires recovery: Palisades</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Pagbawi sa mga sunog sa Los Angeles: Palisades</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>form-success-message</t>
+          <t>topic-los-angeles-fires-recovery-eaton</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Your subscription is confirmed.</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr"/>
+          <t>Los Angeles fires recovery: Eaton</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Pagbawi sa mga sunog sa Los Angeles: Eaton</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>form-success-message-2</t>
+          <t>valid-email-message</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Thank you for signing up! Look out for news and updates.</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr"/>
+          <t>Please enter a valid email address.</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Mangyaring magpasok ng wastong email address.</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>privacy-policy</t>
+          <t>valid-email-message-2</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Privacy policy</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr"/>
+          <t>Email addresses should contain a "@" and a "."</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Ang mga email address ay dapat maglaman ng "@" at isang "."</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>website-accessibility-certification</t>
+          <t>form-problem-message</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Accessibility</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr"/>
+          <t>We're sorry, there's a problem with our form.</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Paumanhin, may problema sa aming form.</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>form-privacy-message</t>
+          <t>form-problem-message-2</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>We take your &lt;a href="/privacy"&gt;privacy&lt;/a&gt; seriously.</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr"/>
+          <t>Please try again later.</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Pakisubukang muli mamaya.</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>form-privacy-message-2</t>
+          <t>form-submit-button</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>You can unsubscribe at any time.</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr"/>
+          <t>Sign up now</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Magpatala ngayon</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>about-this-program</t>
+          <t>form-success-message</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>About the program</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr"/>
+          <t>Your subscription is confirmed.</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Nakumpirma ang iyong suskripsyon.</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>conditions-of-use</t>
+          <t>form-success-message-2</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Conditions of use</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr"/>
+          <t>Thank you for signing up! Look out for news and updates.</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Salamat sa pagpapatala! Abangan ang mga balita at update.</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
+          <t>privacy-policy</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Privacy policy</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Patakaran sa pagiging pribado</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>website-accessibility-certification</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Accessibility</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Aksesibilidad</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>form-privacy-message</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>We take your &lt;a href="/privacy"&gt;privacy&lt;/a&gt; seriously.</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Itinuturing naming seryoso ang iyong &lt;a href="/vi/privacy"&gt; privacy&lt;/a&gt;.</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>form-privacy-message-2</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>You can unsubscribe at any time.</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Maaari mong ihinto ang iyong suskripsyon anumang oras.</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>home-alt-header</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Circles with thumbs up, text bubble, and exclamation point</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Mga bilog na may thumbs up, text bubble, at tandang padamdam</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>home-alt-header-about</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Circles with exclamation point and question mark</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Mga bilog na may tandang padamdam at tandang pananong</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>about-alt-header</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Circles with megaphone, microphone, and chat bubbles</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Mga bilog na may megaphone, mikropono, at mga chat bubble</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>about-this-program</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>About the program</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Tungkol sa programa</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>conditions-of-use</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Conditions of use</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Mga kondisyon ng paggamit</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
           <t>sitemap</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B38" t="inlineStr">
         <is>
           <t>Sitemap</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr"/>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Mapa ng website</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
